--- a/src-tauri/save_data.xlsx
+++ b/src-tauri/save_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -25,13 +25,22 @@
     <t>Показания</t>
   </si>
   <si>
-    <t>12345678</t>
-  </si>
-  <si>
-    <t>13:45 17.04.24</t>
+    <t>12359246</t>
+  </si>
+  <si>
+    <t>18:08 16.04.24</t>
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>12385614</t>
+  </si>
+  <si>
+    <t>12362574</t>
+  </si>
+  <si>
+    <t>12353102</t>
   </si>
 </sst>
 </file>
@@ -363,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,6 +400,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
